--- a/Gantt_M2.xlsx
+++ b/Gantt_M2.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Papers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\G Drive backup\LTTS Internship\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7335"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t xml:space="preserve">Steps </t>
   </si>
@@ -53,9 +53,6 @@
     <t>week 9</t>
   </si>
   <si>
-    <t>week 10</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tools required </t>
   </si>
   <si>
@@ -111,13 +108,40 @@
   </si>
   <si>
     <t>Finalize the classification model based on accuracy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement the classification model on dataset. </t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Python (Pycaret)</t>
+  </si>
+  <si>
+    <t>Reimplement the existing code</t>
+  </si>
+  <si>
+    <t>Perform Pycaret on Kaggle dataset</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planned activity </t>
+  </si>
+  <si>
+    <t>Work in Progress</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,8 +149,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,8 +171,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -148,28 +192,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,172 +566,308 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J15"/>
+  <dimension ref="B2:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="5" max="10" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E2" s="5" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="2:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="2:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="10"/>
+      <c r="C13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="10"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="2:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D4" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
+      <c r="C15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="E15" s="8"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+      <c r="C16" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6" t="s">
+      <c r="D16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E16" s="8"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="10"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="D15" s="1" t="s">
+      <c r="E17" s="8"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="14">
     <mergeCell ref="E2:J2"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="B11:B14"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
